--- a/PunteggioGioco.xlsx
+++ b/PunteggioGioco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosca\Documents\Università\Gioco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A7687A-ACBF-4EC7-9FE1-9EDD35D3DF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7E66B4-C711-4202-9280-3182B101336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA784FD6-81FB-4863-9D22-9AC8A61D18BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA784FD6-81FB-4863-9D22-9AC8A61D18BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,63 +34,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Build Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splash Screen </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Splash screen(da fare)</t>
+  </si>
+  <si>
+    <t>Sound/music</t>
+  </si>
+  <si>
+    <t>Credits*</t>
+  </si>
+  <si>
+    <t>Resolution *</t>
+  </si>
+  <si>
+    <t>Classifica</t>
+  </si>
+  <si>
+    <t>Score*</t>
+  </si>
+  <si>
+    <t>PowerrUp</t>
+  </si>
+  <si>
+    <t>Nemici</t>
+  </si>
+  <si>
+    <t>PlayerPrefs</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Coroutines</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Classi statiche</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Overload</t>
+  </si>
+  <si>
+    <t>Ereditarietà</t>
+  </si>
+  <si>
+    <t>overriding</t>
+  </si>
+  <si>
+    <t>Interfacce</t>
+  </si>
+  <si>
+    <t>ExMethod*</t>
+  </si>
+  <si>
+    <t>Delegate</t>
+  </si>
+  <si>
+    <t>Animazioni</t>
+  </si>
+  <si>
+    <t>Soundtrack</t>
+  </si>
+  <si>
+    <t>Altri suoni *</t>
+  </si>
+  <si>
+    <t>RayCast</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>per canditato</t>
+  </si>
+  <si>
+    <t>Controls</t>
   </si>
   <si>
     <t xml:space="preserve">Icona gioco </t>
   </si>
   <si>
-    <t>Main menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load Game </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Options </t>
-  </si>
-  <si>
-    <t>Sound\music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls </t>
-  </si>
-  <si>
-    <t>Crediti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classifica Ordinata </t>
-  </si>
-  <si>
-    <t>Tutorial max 3 pt</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>PowerUp</t>
-  </si>
-  <si>
-    <t>Shopr</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Gioco a Tempo</t>
-  </si>
-  <si>
-    <t>Nemici(cibo con glutine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livelli di difficolta </t>
-  </si>
-  <si>
-    <t>ai base</t>
+    <t>Tutorial</t>
   </si>
 </sst>
 </file>
@@ -123,8 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -439,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFE016-B67D-443F-B78D-1158363A4D06}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,127 +489,129 @@
     <col min="1" max="1" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f>SUM(B:B)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -578,26 +619,116 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B1:B28)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <f>B33/1.1</f>
+        <v>33.18181818181818</v>
       </c>
     </row>
   </sheetData>
